--- a/Dashboards/Data final/pobreza_region.xlsx
+++ b/Dashboards/Data final/pobreza_region.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,7 +394,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>35.8496247810786</v>
+        <v>38.14363599951554</v>
       </c>
     </row>
     <row r="3">
@@ -412,7 +412,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>13.52975458330399</v>
+        <v>15.45791201089473</v>
       </c>
     </row>
     <row r="4">
@@ -430,7 +430,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>29.10675351007541</v>
+        <v>54.6262413454148</v>
       </c>
     </row>
     <row r="5">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>9.242851389448248</v>
+        <v>35.98424184149363</v>
       </c>
     </row>
     <row r="6">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>39.90885567950223</v>
+        <v>32.95278413800352</v>
       </c>
     </row>
     <row r="7">
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>18.05048476804536</v>
+        <v>15.1995721316121</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>32.27710412187238</v>
+        <v>35.84458650031529</v>
       </c>
     </row>
     <row r="9">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>9.877192043126502</v>
+        <v>14.19217523338042</v>
       </c>
     </row>
     <row r="10">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>26.69341997375042</v>
+        <v>49.32947002795839</v>
       </c>
     </row>
     <row r="11">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>12.34276135546358</v>
+        <v>30.3098107726709</v>
       </c>
     </row>
     <row r="12">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="D12">
-        <v>40.6639237105299</v>
+        <v>32.35899848396569</v>
       </c>
     </row>
     <row r="13">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>17.17789647880358</v>
+        <v>15.62068213575621</v>
       </c>
     </row>
     <row r="14">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="D14">
-        <v>31.60622703198364</v>
+        <v>35.89243503191006</v>
       </c>
     </row>
     <row r="15">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="D15">
-        <v>14.21742053712834</v>
+        <v>12.88367483463914</v>
       </c>
     </row>
     <row r="16">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="D16">
-        <v>31.36720679585062</v>
+        <v>59.01210110543519</v>
       </c>
     </row>
     <row r="17">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="D17">
-        <v>10.73330790946715</v>
+        <v>36.66593134392486</v>
       </c>
     </row>
     <row r="18">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="D18">
-        <v>42.09695438716496</v>
+        <v>33.5295730065754</v>
       </c>
     </row>
     <row r="19">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="D19">
-        <v>16.78460036351451</v>
+        <v>15.99774837246488</v>
       </c>
     </row>
     <row r="20">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="D20">
-        <v>31.76274195323898</v>
+        <v>33.16950160844431</v>
       </c>
     </row>
     <row r="21">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="D21">
-        <v>13.06544006889162</v>
+        <v>10.80300732285277</v>
       </c>
     </row>
     <row r="22">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="D22">
-        <v>24.52345366899878</v>
+        <v>48.58641969174509</v>
       </c>
     </row>
     <row r="23">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D23">
-        <v>9.413587042395074</v>
+        <v>27.73229493325686</v>
       </c>
     </row>
     <row r="24">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="D24">
-        <v>36.69732074331056</v>
+        <v>30.47536094911921</v>
       </c>
     </row>
     <row r="25">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="D25">
-        <v>13.62261278216532</v>
+        <v>14.07420301758494</v>
       </c>
     </row>
     <row r="26">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="D26">
-        <v>32.4696563842059</v>
+        <v>26.30646878231453</v>
       </c>
     </row>
     <row r="27">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="D27">
-        <v>10.56173613668702</v>
+        <v>8.671687335283092</v>
       </c>
     </row>
     <row r="28">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="D28">
-        <v>24.40267813380835</v>
+        <v>47.80494953793603</v>
       </c>
     </row>
     <row r="29">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="D29">
-        <v>7.062380341317717</v>
+        <v>28.70320527815434</v>
       </c>
     </row>
     <row r="30">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="D30">
-        <v>34.69398373128027</v>
+        <v>28.81466040126037</v>
       </c>
     </row>
     <row r="31">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="D31">
-        <v>14.19249045848319</v>
+        <v>12.90716267834566</v>
       </c>
     </row>
     <row r="32">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="D32">
-        <v>32.13683530862611</v>
+        <v>24.807186663795</v>
       </c>
     </row>
     <row r="33">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D33">
-        <v>9.213646809695613</v>
+        <v>8.003898898818537</v>
       </c>
     </row>
     <row r="34">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D34">
-        <v>22.80395043552938</v>
+        <v>47.0814702014259</v>
       </c>
     </row>
     <row r="35">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="D35">
-        <v>8.346061832903938</v>
+        <v>26.13566830483837</v>
       </c>
     </row>
     <row r="36">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="D36">
-        <v>29.35593717122783</v>
+        <v>27.80768597275787</v>
       </c>
     </row>
     <row r="37">
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="D37">
-        <v>10.89941939504133</v>
+        <v>13.01520288643518</v>
       </c>
     </row>
     <row r="38">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="D38">
-        <v>28.98118372543104</v>
+        <v>28.60001972228088</v>
       </c>
     </row>
     <row r="39">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="D39">
-        <v>7.418042136092367</v>
+        <v>8.00283514125133</v>
       </c>
     </row>
     <row r="40">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="D40">
-        <v>26.9564025494669</v>
+        <v>35.59701910003867</v>
       </c>
     </row>
     <row r="41">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="D41">
-        <v>7.816635499988578</v>
+        <v>18.79637894593471</v>
       </c>
     </row>
     <row r="42">
@@ -1114,7 +1114,7 @@
         </is>
       </c>
       <c r="D42">
-        <v>25.66397279647024</v>
+        <v>21.03089170557897</v>
       </c>
     </row>
     <row r="43">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D43">
-        <v>9.04755578562561</v>
+        <v>8.146251806105521</v>
       </c>
     </row>
     <row r="44">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="D44">
-        <v>28.11664304065875</v>
+        <v>24.39553892066911</v>
       </c>
     </row>
     <row r="45">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="D45">
-        <v>8.615278829233924</v>
+        <v>7.368493146925243</v>
       </c>
     </row>
     <row r="46">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="D46">
-        <v>22.31468631103465</v>
+        <v>38.60029021358826</v>
       </c>
     </row>
     <row r="47">
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="D47">
-        <v>7.879822483021377</v>
+        <v>21.46686139770912</v>
       </c>
     </row>
     <row r="48">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="D48">
-        <v>22.7135181480423</v>
+        <v>18.25885883414072</v>
       </c>
     </row>
     <row r="49">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="D49">
-        <v>8.410345813089453</v>
+        <v>6.268733985477996</v>
       </c>
     </row>
     <row r="50">
@@ -1258,7 +1258,7 @@
         </is>
       </c>
       <c r="D50">
-        <v>22.90126960956577</v>
+        <v>24.22079353443872</v>
       </c>
     </row>
     <row r="51">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="D51">
-        <v>4.745582497589634</v>
+        <v>6.950013272826726</v>
       </c>
     </row>
     <row r="52">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="D52">
-        <v>19.75324867552035</v>
+        <v>44.72056929447555</v>
       </c>
     </row>
     <row r="53">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D53">
-        <v>7.209609750620132</v>
+        <v>27.39625794597888</v>
       </c>
     </row>
     <row r="54">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="D54">
-        <v>24.7507034482366</v>
+        <v>19.71800804442211</v>
       </c>
     </row>
     <row r="55">
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="D55">
-        <v>9.214590733317804</v>
+        <v>7.929880485607629</v>
       </c>
     </row>
     <row r="56">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="D56">
-        <v>21.74461401649058</v>
+        <v>22.30064586507469</v>
       </c>
     </row>
     <row r="57">
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="D57">
-        <v>9.256976883762842</v>
+        <v>6.764499708051605</v>
       </c>
     </row>
     <row r="58">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="D58">
-        <v>17.23015124311494</v>
+        <v>44.98516009364589</v>
       </c>
     </row>
     <row r="59">
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="D59">
-        <v>5.601332418836451</v>
+        <v>28.27066293837953</v>
       </c>
     </row>
     <row r="60">
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="D60">
-        <v>25.88602171880176</v>
+        <v>21.02274696651592</v>
       </c>
     </row>
     <row r="61">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="D61">
-        <v>9.33129442921634</v>
+        <v>8.502292553170685</v>
       </c>
     </row>
     <row r="62">
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="D62">
-        <v>15.15811687995311</v>
+        <v>20.29624540007003</v>
       </c>
     </row>
     <row r="63">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D63">
-        <v>4.527946255434245</v>
+        <v>5.754442569870586</v>
       </c>
     </row>
     <row r="64">
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="D64">
-        <v>17.87553788186252</v>
+        <v>42.46372755399076</v>
       </c>
     </row>
     <row r="65">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="D65">
-        <v>5.285165407074627</v>
+        <v>25.78912921082178</v>
       </c>
     </row>
     <row r="66">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="D66">
-        <v>22.66775192994573</v>
+        <v>20.18724028989515</v>
       </c>
     </row>
     <row r="67">
@@ -1564,7 +1564,763 @@
         </is>
       </c>
       <c r="D67">
-        <v>7.310412364174963</v>
+        <v>8.226707483836581</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>2018</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Costa</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Pobreza</t>
+        </is>
+      </c>
+      <c r="D68">
+        <v>23.44433224822351</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>2018</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Costa</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Pobreza extrema</t>
+        </is>
+      </c>
+      <c r="D69">
+        <v>7.106656413560558</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>2018</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Oriente</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Pobreza</t>
+        </is>
+      </c>
+      <c r="D70">
+        <v>45.47921405004109</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>2018</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Oriente</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Pobreza extrema</t>
+        </is>
+      </c>
+      <c r="D71">
+        <v>26.33234339960892</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>2018</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Sierra</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Pobreza</t>
+        </is>
+      </c>
+      <c r="D72">
+        <v>20.19220508237685</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>2018</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Sierra</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Pobreza extrema</t>
+        </is>
+      </c>
+      <c r="D73">
+        <v>7.631384074461965</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>2019</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Costa</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Pobreza</t>
+        </is>
+      </c>
+      <c r="D74">
+        <v>25.32166776575436</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>2019</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Costa</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Pobreza extrema</t>
+        </is>
+      </c>
+      <c r="D75">
+        <v>7.179265853177669</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>2019</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Oriente</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Pobreza</t>
+        </is>
+      </c>
+      <c r="D76">
+        <v>43.81960109911133</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>2019</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Oriente</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Pobreza extrema</t>
+        </is>
+      </c>
+      <c r="D77">
+        <v>25.39897447109997</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>2019</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Sierra</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Pobreza</t>
+        </is>
+      </c>
+      <c r="D78">
+        <v>22.50522186880941</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>2019</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Sierra</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Pobreza extrema</t>
+        </is>
+      </c>
+      <c r="D79">
+        <v>8.776254627585374</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>2020</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Costa</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Pobreza</t>
+        </is>
+      </c>
+      <c r="D80">
+        <v>30.83986650715876</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>2020</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Costa</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Pobreza extrema</t>
+        </is>
+      </c>
+      <c r="D81">
+        <v>11.43275826317707</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>2020</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Oriente</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Pobreza</t>
+        </is>
+      </c>
+      <c r="D82">
+        <v>61.76635513536574</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>2020</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Oriente</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Pobreza extrema</t>
+        </is>
+      </c>
+      <c r="D83">
+        <v>44.29573755641636</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>2020</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Sierra</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Pobreza</t>
+        </is>
+      </c>
+      <c r="D84">
+        <v>25.91388848689958</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>2020</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Sierra</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Pobreza extrema</t>
+        </is>
+      </c>
+      <c r="D85">
+        <v>11.02669502542741</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>2021</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Costa</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Pobreza</t>
+        </is>
+      </c>
+      <c r="D86">
+        <v>27.30676549256789</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>2021</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Costa</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Pobreza extrema</t>
+        </is>
+      </c>
+      <c r="D87">
+        <v>7.078111881995505</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>2021</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Oriente</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Pobreza</t>
+        </is>
+      </c>
+      <c r="D88">
+        <v>59.60492083423075</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>2021</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Oriente</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Pobreza extrema</t>
+        </is>
+      </c>
+      <c r="D89">
+        <v>43.01085351732007</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>2021</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Sierra</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Pobreza</t>
+        </is>
+      </c>
+      <c r="D90">
+        <v>17.87683994527823</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>2021</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Sierra</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Pobreza extrema</t>
+        </is>
+      </c>
+      <c r="D91">
+        <v>5.123392169594305</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>2022</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Costa</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Pobreza</t>
+        </is>
+      </c>
+      <c r="D92">
+        <v>23.35297753197948</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>2022</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Costa</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Pobreza extrema</t>
+        </is>
+      </c>
+      <c r="D93">
+        <v>5.019706540264221</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>2022</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Oriente</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Pobreza</t>
+        </is>
+      </c>
+      <c r="D94">
+        <v>58.99761087461328</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>2022</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Oriente</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Pobreza extrema</t>
+        </is>
+      </c>
+      <c r="D95">
+        <v>36.6492121534727</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>2022</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Sierra</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Pobreza</t>
+        </is>
+      </c>
+      <c r="D96">
+        <v>16.86130685979331</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>2022</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Sierra</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Pobreza extrema</t>
+        </is>
+      </c>
+      <c r="D97">
+        <v>3.808267556351208</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>2023</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Costa</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Pobreza</t>
+        </is>
+      </c>
+      <c r="D98">
+        <v>23.3355753923395</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>2023</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Costa</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Pobreza extrema</t>
+        </is>
+      </c>
+      <c r="D99">
+        <v>4.967560401145677</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>2023</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Oriente</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Pobreza</t>
+        </is>
+      </c>
+      <c r="D100">
+        <v>58.56001593192315</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>2023</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Oriente</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Pobreza extrema</t>
+        </is>
+      </c>
+      <c r="D101">
+        <v>40.19148822551381</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>2023</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Sierra</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Pobreza</t>
+        </is>
+      </c>
+      <c r="D102">
+        <v>17.73067276597218</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>2023</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Sierra</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Pobreza extrema</t>
+        </is>
+      </c>
+      <c r="D103">
+        <v>5.220391528618548</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>2024</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Costa</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Pobreza</t>
+        </is>
+      </c>
+      <c r="D104">
+        <v>24.48583733280943</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>2024</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Costa</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Pobreza extrema</t>
+        </is>
+      </c>
+      <c r="D105">
+        <v>8.075678831010686</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>2024</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Oriente</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Pobreza</t>
+        </is>
+      </c>
+      <c r="D106">
+        <v>57.74246455466749</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>2024</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Oriente</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Pobreza extrema</t>
+        </is>
+      </c>
+      <c r="D107">
+        <v>40.1328197825313</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>2024</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Sierra</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Pobreza</t>
+        </is>
+      </c>
+      <c r="D108">
+        <v>19.99351893445714</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>2024</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Sierra</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Pobreza extrema</t>
+        </is>
+      </c>
+      <c r="D109">
+        <v>6.860894057451052</v>
       </c>
     </row>
   </sheetData>
